--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.81423266666667</v>
+        <v>59.38757333333334</v>
       </c>
       <c r="H2">
-        <v>110.442698</v>
+        <v>178.16272</v>
       </c>
       <c r="I2">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="J2">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N2">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P2">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q2">
-        <v>7098.835938931908</v>
+        <v>13487.59729783893</v>
       </c>
       <c r="R2">
-        <v>63889.52345038717</v>
+        <v>121388.3756805504</v>
       </c>
       <c r="S2">
-        <v>0.1074705355683142</v>
+        <v>0.1634592511063717</v>
       </c>
       <c r="T2">
-        <v>0.1074705355683142</v>
+        <v>0.1634592511063717</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.81423266666667</v>
+        <v>59.38757333333334</v>
       </c>
       <c r="H3">
-        <v>110.442698</v>
+        <v>178.16272</v>
       </c>
       <c r="I3">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="J3">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.262762</v>
       </c>
       <c r="O3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P3">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q3">
-        <v>15.49587135687511</v>
+        <v>24.99745695918223</v>
       </c>
       <c r="R3">
-        <v>139.462842211876</v>
+        <v>224.97711263264</v>
       </c>
       <c r="S3">
-        <v>0.0002345947431589237</v>
+        <v>0.0003029498511767088</v>
       </c>
       <c r="T3">
-        <v>0.0002345947431589237</v>
+        <v>0.0003029498511767088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.81423266666667</v>
+        <v>59.38757333333334</v>
       </c>
       <c r="H4">
-        <v>110.442698</v>
+        <v>178.16272</v>
       </c>
       <c r="I4">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="J4">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N4">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P4">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q4">
-        <v>302.749057923936</v>
+        <v>192.0055476309867</v>
       </c>
       <c r="R4">
-        <v>2724.741521315425</v>
+        <v>1728.04992867888</v>
       </c>
       <c r="S4">
-        <v>0.0045833716510405</v>
+        <v>0.002326958785243282</v>
       </c>
       <c r="T4">
-        <v>0.004583371651040499</v>
+        <v>0.002326958785243281</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.81423266666667</v>
+        <v>59.38757333333334</v>
       </c>
       <c r="H5">
-        <v>110.442698</v>
+        <v>178.16272</v>
       </c>
       <c r="I5">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="J5">
-        <v>0.13776174071044</v>
+        <v>0.1895016356445263</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N5">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P5">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q5">
-        <v>1682.603903930741</v>
+        <v>1931.845671447876</v>
       </c>
       <c r="R5">
-        <v>15143.43513537667</v>
+        <v>17386.61104303088</v>
       </c>
       <c r="S5">
-        <v>0.02547323874792643</v>
+        <v>0.02341247590173465</v>
       </c>
       <c r="T5">
-        <v>0.02547323874792643</v>
+        <v>0.02341247590173465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>642.303543</v>
       </c>
       <c r="I6">
-        <v>0.8011833806175486</v>
+        <v>0.6831820482914401</v>
       </c>
       <c r="J6">
-        <v>0.8011833806175486</v>
+        <v>0.68318204829144</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N6">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P6">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q6">
-        <v>41284.82513847765</v>
+        <v>48624.82752261064</v>
       </c>
       <c r="R6">
-        <v>371563.4262462989</v>
+        <v>437623.4477034958</v>
       </c>
       <c r="S6">
-        <v>0.6250182856238782</v>
+        <v>0.5892953145402651</v>
       </c>
       <c r="T6">
-        <v>0.6250182856238782</v>
+        <v>0.5892953145402651</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>642.303543</v>
       </c>
       <c r="I7">
-        <v>0.8011833806175486</v>
+        <v>0.6831820482914401</v>
       </c>
       <c r="J7">
-        <v>0.8011833806175486</v>
+        <v>0.68318204829144</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.262762</v>
       </c>
       <c r="O7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P7">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q7">
         <v>90.11961184064067</v>
@@ -883,10 +883,10 @@
         <v>811.0765065657661</v>
       </c>
       <c r="S7">
-        <v>0.001364336777612511</v>
+        <v>0.001092180018143654</v>
       </c>
       <c r="T7">
-        <v>0.001364336777612511</v>
+        <v>0.001092180018143654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>642.303543</v>
       </c>
       <c r="I8">
-        <v>0.8011833806175486</v>
+        <v>0.6831820482914401</v>
       </c>
       <c r="J8">
-        <v>0.8011833806175486</v>
+        <v>0.68318204829144</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N8">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P8">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q8">
-        <v>1760.703025784976</v>
+        <v>692.2090295828331</v>
       </c>
       <c r="R8">
-        <v>15846.32723206478</v>
+        <v>6229.881266245497</v>
       </c>
       <c r="S8">
-        <v>0.02665559519696878</v>
+        <v>0.008389038246479038</v>
       </c>
       <c r="T8">
-        <v>0.02665559519696877</v>
+        <v>0.008389038246479037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>642.303543</v>
       </c>
       <c r="I9">
-        <v>0.8011833806175486</v>
+        <v>0.6831820482914401</v>
       </c>
       <c r="J9">
-        <v>0.8011833806175486</v>
+        <v>0.68318204829144</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N9">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P9">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q9">
-        <v>9785.549144773215</v>
+        <v>6964.5957319252</v>
       </c>
       <c r="R9">
-        <v>88069.94230295894</v>
+        <v>62681.3615873268</v>
       </c>
       <c r="S9">
-        <v>0.1481451630190892</v>
+        <v>0.08440551548655233</v>
       </c>
       <c r="T9">
-        <v>0.1481451630190892</v>
+        <v>0.08440551548655231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.037618</v>
+        <v>39.60717</v>
       </c>
       <c r="H10">
-        <v>48.112854</v>
+        <v>118.82151</v>
       </c>
       <c r="I10">
-        <v>0.06001402209123193</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="J10">
-        <v>0.06001402209123194</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N10">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P10">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q10">
-        <v>3092.510987913241</v>
+        <v>8995.241413024802</v>
       </c>
       <c r="R10">
-        <v>27832.59889121917</v>
+        <v>80957.17271722322</v>
       </c>
       <c r="S10">
-        <v>0.04681807200237092</v>
+        <v>0.1090153711165178</v>
       </c>
       <c r="T10">
-        <v>0.04681807200237093</v>
+        <v>0.1090153711165178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.037618</v>
+        <v>39.60717</v>
       </c>
       <c r="H11">
-        <v>48.112854</v>
+        <v>118.82151</v>
       </c>
       <c r="I11">
-        <v>0.06001402209123193</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="J11">
-        <v>0.06001402209123194</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.262762</v>
       </c>
       <c r="O11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P11">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q11">
-        <v>6.750564860305333</v>
+        <v>16.67147640118</v>
       </c>
       <c r="R11">
-        <v>60.75508374274801</v>
+        <v>150.04328761062</v>
       </c>
       <c r="S11">
-        <v>0.000102197997976949</v>
+        <v>0.0002020454041737341</v>
       </c>
       <c r="T11">
-        <v>0.000102197997976949</v>
+        <v>0.0002020454041737341</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.037618</v>
+        <v>39.60717</v>
       </c>
       <c r="H12">
-        <v>48.112854</v>
+        <v>118.82151</v>
       </c>
       <c r="I12">
-        <v>0.06001402209123193</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="J12">
-        <v>0.06001402209123194</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N12">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P12">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q12">
-        <v>131.888494996128</v>
+        <v>128.05366407681</v>
       </c>
       <c r="R12">
-        <v>1186.996454965152</v>
+        <v>1152.48297669129</v>
       </c>
       <c r="S12">
-        <v>0.001996683303356556</v>
+        <v>0.001551911401949703</v>
       </c>
       <c r="T12">
-        <v>0.001996683303356556</v>
+        <v>0.001551911401949703</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.037618</v>
+        <v>39.60717</v>
       </c>
       <c r="H13">
-        <v>48.112854</v>
+        <v>118.82151</v>
       </c>
       <c r="I13">
-        <v>0.06001402209123193</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="J13">
-        <v>0.06001402209123194</v>
+        <v>0.126383737825469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N13">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P13">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q13">
-        <v>733.0034256284627</v>
+        <v>1288.39983902581</v>
       </c>
       <c r="R13">
-        <v>6597.030830656164</v>
+        <v>11595.59855123229</v>
       </c>
       <c r="S13">
-        <v>0.01109706878752751</v>
+        <v>0.01561440990282772</v>
       </c>
       <c r="T13">
-        <v>0.01109706878752751</v>
+        <v>0.01561440990282772</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2781493333333334</v>
+        <v>0.292259</v>
       </c>
       <c r="H14">
-        <v>0.8344480000000001</v>
+        <v>0.876777</v>
       </c>
       <c r="I14">
-        <v>0.001040856580779521</v>
+        <v>0.0009325782385647279</v>
       </c>
       <c r="J14">
-        <v>0.001040856580779521</v>
+        <v>0.000932578238564728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>192.8285726666667</v>
+        <v>227.11144</v>
       </c>
       <c r="N14">
-        <v>578.485718</v>
+        <v>681.33432</v>
       </c>
       <c r="O14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="P14">
-        <v>0.7801188850698786</v>
+        <v>0.8625743548356182</v>
       </c>
       <c r="Q14">
-        <v>53.63513893485156</v>
+        <v>66.37536234296</v>
       </c>
       <c r="R14">
-        <v>482.7162504136641</v>
+        <v>597.37826108664</v>
       </c>
       <c r="S14">
-        <v>0.0008119918753153661</v>
+        <v>0.0008044180724637073</v>
       </c>
       <c r="T14">
-        <v>0.0008119918753153661</v>
+        <v>0.0008044180724637074</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2781493333333334</v>
+        <v>0.292259</v>
       </c>
       <c r="H15">
-        <v>0.8344480000000001</v>
+        <v>0.876777</v>
       </c>
       <c r="I15">
-        <v>0.001040856580779521</v>
+        <v>0.0009325782385647279</v>
       </c>
       <c r="J15">
-        <v>0.001040856580779521</v>
+        <v>0.000932578238564728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.262762</v>
       </c>
       <c r="O15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="P15">
-        <v>0.001702901995496819</v>
+        <v>0.001598666154760757</v>
       </c>
       <c r="Q15">
-        <v>0.1170788028195556</v>
+        <v>0.1230178531193333</v>
       </c>
       <c r="R15">
-        <v>1.053709225376</v>
+        <v>1.107160678074</v>
       </c>
       <c r="S15">
-        <v>1.772476748435443E-06</v>
+        <v>1.490881266659833E-06</v>
       </c>
       <c r="T15">
-        <v>1.772476748435442E-06</v>
+        <v>1.490881266659833E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2781493333333334</v>
+        <v>0.292259</v>
       </c>
       <c r="H16">
-        <v>0.8344480000000001</v>
+        <v>0.876777</v>
       </c>
       <c r="I16">
-        <v>0.001040856580779521</v>
+        <v>0.0009325782385647279</v>
       </c>
       <c r="J16">
-        <v>0.001040856580779521</v>
+        <v>0.000932578238564728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.223696</v>
+        <v>3.233093</v>
       </c>
       <c r="N16">
-        <v>24.671088</v>
+        <v>9.699279000000001</v>
       </c>
       <c r="O16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="P16">
-        <v>0.0332702797409786</v>
+        <v>0.01227935989749593</v>
       </c>
       <c r="Q16">
-        <v>2.287415559936</v>
+        <v>0.944900527087</v>
       </c>
       <c r="R16">
-        <v>20.586740039424</v>
+        <v>8.504104743783001</v>
       </c>
       <c r="S16">
-        <v>3.462958961277317E-05</v>
+        <v>1.145146382390911E-05</v>
       </c>
       <c r="T16">
-        <v>3.462958961277316E-05</v>
+        <v>1.145146382390911E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2781493333333334</v>
+        <v>0.292259</v>
       </c>
       <c r="H17">
-        <v>0.8344480000000001</v>
+        <v>0.876777</v>
       </c>
       <c r="I17">
-        <v>0.001040856580779521</v>
+        <v>0.0009325782385647279</v>
       </c>
       <c r="J17">
-        <v>0.001040856580779521</v>
+        <v>0.000932578238564728</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.70525533333333</v>
+        <v>32.52945966666667</v>
       </c>
       <c r="N17">
-        <v>137.115766</v>
+        <v>97.588379</v>
       </c>
       <c r="O17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="P17">
-        <v>0.184907933193646</v>
+        <v>0.1235476191121251</v>
       </c>
       <c r="Q17">
-        <v>12.71288630079645</v>
+        <v>9.507027352720334</v>
       </c>
       <c r="R17">
-        <v>114.415976707168</v>
+        <v>85.56324617448301</v>
       </c>
       <c r="S17">
-        <v>0.0001924626391029466</v>
+        <v>0.0001152178210104516</v>
       </c>
       <c r="T17">
-        <v>0.0001924626391029466</v>
+        <v>0.0001152178210104516</v>
       </c>
     </row>
   </sheetData>
